--- a/Mario1/map.xlsx
+++ b/Mario1/map.xlsx
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection sqref="A1:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,10 +376,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -390,7 +390,7 @@
       </c>
       <c r="H1">
         <f>C1-15</f>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="I1">
         <v>2</v>
@@ -406,10 +406,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -420,7 +420,7 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H5" si="0">C2-15</f>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -436,10 +436,10 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -449,7 +449,7 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -465,10 +465,10 @@
         <v>48</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -478,7 +478,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -494,10 +494,10 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -507,7 +507,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -523,10 +523,10 @@
         <v>80</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -539,10 +539,10 @@
         <v>96</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -555,10 +555,10 @@
         <v>112</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -571,10 +571,10 @@
         <v>128</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -590,10 +590,10 @@
         <v>144</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -618,10 +618,10 @@
         <v>160</v>
       </c>
       <c r="C11">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -637,10 +637,10 @@
         <v>176</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -665,10 +665,10 @@
         <v>192</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -681,10 +681,10 @@
         <v>208</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -697,10 +697,10 @@
         <v>224</v>
       </c>
       <c r="C15">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
         <v>240</v>
       </c>
       <c r="C16">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -729,10 +729,10 @@
         <v>256</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -745,10 +745,10 @@
         <v>272</v>
       </c>
       <c r="C18">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -761,10 +761,10 @@
         <v>288</v>
       </c>
       <c r="C19">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -790,10 +790,10 @@
         <v>304</v>
       </c>
       <c r="C20">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -820,10 +820,10 @@
         <v>320</v>
       </c>
       <c r="C21">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -850,10 +850,10 @@
         <v>336</v>
       </c>
       <c r="C22">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -880,10 +880,10 @@
         <v>352</v>
       </c>
       <c r="C23">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <f>H22-15</f>
@@ -900,10 +900,10 @@
         <v>368</v>
       </c>
       <c r="C24">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -916,10 +916,10 @@
         <v>384</v>
       </c>
       <c r="C25">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -932,10 +932,10 @@
         <v>400</v>
       </c>
       <c r="C26">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -948,10 +948,10 @@
         <v>416</v>
       </c>
       <c r="C27">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -964,10 +964,10 @@
         <v>432</v>
       </c>
       <c r="C28">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -980,10 +980,10 @@
         <v>448</v>
       </c>
       <c r="C29">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>464</v>
       </c>
       <c r="C30">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1012,10 +1012,10 @@
         <v>480</v>
       </c>
       <c r="C31">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>496</v>
       </c>
       <c r="C32">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,10 +1044,10 @@
         <v>512</v>
       </c>
       <c r="C33">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,10 +1060,10 @@
         <v>528</v>
       </c>
       <c r="C34">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,10 +1076,10 @@
         <v>544</v>
       </c>
       <c r="C35">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,10 +1092,10 @@
         <v>560</v>
       </c>
       <c r="C36">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,10 +1108,10 @@
         <v>576</v>
       </c>
       <c r="C37">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,10 +1124,10 @@
         <v>592</v>
       </c>
       <c r="C38">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,10 +1140,10 @@
         <v>608</v>
       </c>
       <c r="C39">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1152,14 +1152,14 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:B100" si="4">B39 + 16</f>
+        <f t="shared" ref="B40:B85" si="4">B39 + 16</f>
         <v>624</v>
       </c>
       <c r="C40">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,10 +1172,10 @@
         <v>640</v>
       </c>
       <c r="C41">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,10 +1188,10 @@
         <v>656</v>
       </c>
       <c r="C42">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,10 +1204,10 @@
         <v>672</v>
       </c>
       <c r="C43">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
         <v>688</v>
       </c>
       <c r="C44">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,10 +1236,10 @@
         <v>704</v>
       </c>
       <c r="C45">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,10 +1252,10 @@
         <v>720</v>
       </c>
       <c r="C46">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,10 +1268,10 @@
         <v>736</v>
       </c>
       <c r="C47">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,10 +1284,10 @@
         <v>752</v>
       </c>
       <c r="C48">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,10 +1300,10 @@
         <v>768</v>
       </c>
       <c r="C49">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,10 +1316,10 @@
         <v>784</v>
       </c>
       <c r="C50">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1332,10 +1332,10 @@
         <v>800</v>
       </c>
       <c r="C51">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,10 +1348,10 @@
         <v>816</v>
       </c>
       <c r="C52">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,10 +1364,10 @@
         <v>832</v>
       </c>
       <c r="C53">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,10 +1380,10 @@
         <v>848</v>
       </c>
       <c r="C54">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,10 +1396,10 @@
         <v>864</v>
       </c>
       <c r="C55">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1412,10 +1412,10 @@
         <v>880</v>
       </c>
       <c r="C56">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1428,10 +1428,10 @@
         <v>896</v>
       </c>
       <c r="C57">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1444,10 +1444,10 @@
         <v>912</v>
       </c>
       <c r="C58">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,10 +1460,10 @@
         <v>928</v>
       </c>
       <c r="C59">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,10 +1476,10 @@
         <v>944</v>
       </c>
       <c r="C60">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,10 +1492,10 @@
         <v>960</v>
       </c>
       <c r="C61">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,10 +1508,10 @@
         <v>976</v>
       </c>
       <c r="C62">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,10 +1524,10 @@
         <v>992</v>
       </c>
       <c r="C63">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,10 +1540,10 @@
         <v>1008</v>
       </c>
       <c r="C64">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,10 +1556,10 @@
         <v>1024</v>
       </c>
       <c r="C65">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,10 +1572,10 @@
         <v>1040</v>
       </c>
       <c r="C66">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,10 +1588,10 @@
         <v>1056</v>
       </c>
       <c r="C67">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,10 +1604,10 @@
         <v>1072</v>
       </c>
       <c r="C68">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
         <v>1088</v>
       </c>
       <c r="C69">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,10 +1636,10 @@
         <v>1104</v>
       </c>
       <c r="C70">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,10 +1652,10 @@
         <v>1120</v>
       </c>
       <c r="C71">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,10 +1668,10 @@
         <v>1136</v>
       </c>
       <c r="C72">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,10 +1684,10 @@
         <v>1152</v>
       </c>
       <c r="C73">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,10 +1700,10 @@
         <v>1168</v>
       </c>
       <c r="C74">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,10 +1716,10 @@
         <v>1184</v>
       </c>
       <c r="C75">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,10 +1732,10 @@
         <v>1200</v>
       </c>
       <c r="C76">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1748,10 +1748,10 @@
         <v>1216</v>
       </c>
       <c r="C77">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1764,10 +1764,10 @@
         <v>1232</v>
       </c>
       <c r="C78">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,10 +1780,10 @@
         <v>1248</v>
       </c>
       <c r="C79">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,10 +1796,10 @@
         <v>1264</v>
       </c>
       <c r="C80">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1812,10 +1812,10 @@
         <v>1280</v>
       </c>
       <c r="C81">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,10 +1828,10 @@
         <v>1296</v>
       </c>
       <c r="C82">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1844,10 +1844,10 @@
         <v>1312</v>
       </c>
       <c r="C83">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1860,10 +1860,10 @@
         <v>1328</v>
       </c>
       <c r="C84">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,10 +1876,10 @@
         <v>1344</v>
       </c>
       <c r="C85">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,10 +1892,10 @@
         <v>1360</v>
       </c>
       <c r="C86">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,10 +1908,10 @@
         <v>1376</v>
       </c>
       <c r="C87">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1924,10 +1924,10 @@
         <v>1392</v>
       </c>
       <c r="C88">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,10 +1940,10 @@
         <v>1408</v>
       </c>
       <c r="C89">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,10 +1956,15 @@
         <v>1424</v>
       </c>
       <c r="C90">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
